--- a/simulations/raw_inclusion_exclusion/van_de_Valk_2021 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/van_de_Valk_2021 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,10 +713,10 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.3370786516853932</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="D3">
-        <v>0.651685393258427</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="E3">
         <v>0.9101123595505618</v>
@@ -725,19 +725,19 @@
         <v>0.9887640449438202</v>
       </c>
       <c r="G3">
-        <v>0.9887640449438202</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0.3931034482758621</v>
+        <v>0.3889655172413793</v>
       </c>
       <c r="I3">
-        <v>0.172249311002756</v>
+        <v>0.1736096388947778</v>
       </c>
       <c r="J3">
-        <v>0.2359550561797753</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="K3">
-        <v>154.5505617977528</v>
+        <v>155.4157303370787</v>
       </c>
       <c r="L3">
         <v>8</v>
@@ -755,34 +755,34 @@
         <v>80</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S3">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T3">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="U3">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="V3">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="W3">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="X3">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="Y3">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="Z3">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="AA3">
         <v>81</v>
@@ -800,19 +800,19 @@
         <v>9</v>
       </c>
       <c r="AF3">
-        <v>0.984277</v>
+        <v>0.9905659999999999</v>
       </c>
       <c r="AG3">
-        <v>0.9591190000000001</v>
+        <v>0.962264</v>
       </c>
       <c r="AH3">
-        <v>0.893082</v>
+        <v>0.897799</v>
       </c>
       <c r="AI3">
-        <v>0.7594340000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AJ3">
-        <v>0.572327</v>
+        <v>0.583333</v>
       </c>
     </row>
   </sheetData>
